--- a/共享调度器 on qemu性能测试.xlsx
+++ b/共享调度器 on qemu性能测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\SharedScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660B536-98E4-44B6-94F5-61A61B3060CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DCCB5-60CC-4899-AC18-20E37C97BD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2058,7 +2058,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>执行时间</a:t>
+                  <a:t>执行时间（毫秒）</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
@@ -3534,7 +3534,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>um</a:t>
+                  <a:t>us</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -4167,7 +4167,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>um</a:t>
+                  <a:t>us</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -10342,8 +10342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
